--- a/examples/analytical/pHBB1991/model_config.pHBB1991.xlsx
+++ b/examples/analytical/pHBB1991/model_config.pHBB1991.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jianghui\.julia\dev\SedTrace\examples\pHBB1991\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jianghui\.julia\dev\SedTrace\examples\analytical\pHBB1991\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19911" windowHeight="5931"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32916" windowHeight="16044" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="reactions" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="125">
   <si>
     <t>type</t>
   </si>
@@ -245,9 +245,6 @@
     <t>error</t>
   </si>
   <si>
-    <t>dissolved_summed_pH</t>
-  </si>
-  <si>
     <t>conversion_profile</t>
   </si>
   <si>
@@ -390,6 +387,36 @@
   </si>
   <si>
     <t>0.055*(1+sinh(b*(x/L-A))/sinh(b*A))-0.05</t>
+  </si>
+  <si>
+    <t>dissolved_pH</t>
+  </si>
+  <si>
+    <t>Concentration of O2 at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>Concentration of O2 at the BOTTOM of sediment column</t>
+  </si>
+  <si>
+    <t>pH at the BOTTOM of sediment column</t>
+  </si>
+  <si>
+    <t>Concentration of TCO2 at the BOTTOM of sediment column</t>
+  </si>
+  <si>
+    <t>Concentration of TH2S at the BOTTOM of sediment column</t>
+  </si>
+  <si>
+    <t>Concentration of TH3BO3 at the TOP of sediment column</t>
+  </si>
+  <si>
+    <t>Concentration of TH3BO3 at the BOTTOM of sediment column</t>
+  </si>
+  <si>
+    <t>mmol cm^-3yr^-1</t>
+  </si>
+  <si>
+    <t>parameter in gridtran</t>
   </si>
 </sst>
 </file>
@@ -807,26 +834,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -841,7 +868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -849,16 +876,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
         <v>93</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>94</v>
       </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="5"/>
     </row>
   </sheetData>
@@ -875,18 +902,18 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.61328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.05078125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -897,10 +924,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>59</v>
@@ -912,7 +939,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D2" s="4"/>
       <c r="F2" s="7"/>
     </row>
@@ -929,16 +956,16 @@
       <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="14.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.69140625" customWidth="1"/>
-    <col min="4" max="4" width="25.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" customWidth="1"/>
+    <col min="4" max="4" width="25.15625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -946,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -958,103 +985,103 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" s="4"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" s="4"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="4"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="4"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="4"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="4"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="4"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="6"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="6"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D16" s="6"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="6"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D18" s="6"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" s="6"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D20" s="6"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" s="6"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" s="6"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" s="6"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" s="6"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" s="6"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" s="6"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" s="6"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D28" s="6"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" s="6"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" s="6"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D31" s="6"/>
     </row>
   </sheetData>
@@ -1068,21 +1095,21 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.23046875" style="1"/>
+    <col min="1" max="1" width="7.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.20703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.05078125" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.20703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="13.8" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
@@ -1093,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>42</v>
@@ -1102,15 +1129,15 @@
         <v>43</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>4</v>
@@ -1123,7 +1150,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1131,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="14" t="s">
@@ -1141,7 +1168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1149,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="14" t="s">
@@ -1160,7 +1187,7 @@
       </c>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1168,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="14" t="s">
@@ -1178,15 +1205,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>44</v>
@@ -1195,7 +1222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="E7" s="14"/>
@@ -1212,27 +1239,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.84375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.4609375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.3828125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.3046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.921875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.3046875" style="4" customWidth="1"/>
-    <col min="10" max="15" width="9.23046875" style="4"/>
-    <col min="16" max="16" width="15.23046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.23046875" style="4"/>
+    <col min="1" max="1" width="6.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.20703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.26171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1015625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.47265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.89453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.20703125" style="4"/>
+    <col min="12" max="12" width="5.1015625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.15625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.47265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.20703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.20703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1254,6 +1286,9 @@
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -1262,7 +1297,7 @@
       <c r="Q1"/>
       <c r="R1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1281,10 +1316,13 @@
       <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
       <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -1293,7 +1331,7 @@
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1312,10 +1350,13 @@
       <c r="F3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -1324,7 +1365,7 @@
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1343,10 +1384,13 @@
       <c r="F4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s">
         <v>47</v>
       </c>
       <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -1355,7 +1399,7 @@
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1374,10 +1418,13 @@
       <c r="F5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" t="s">
         <v>49</v>
       </c>
       <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -1386,7 +1433,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1405,10 +1452,13 @@
       <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" t="s">
         <v>50</v>
       </c>
       <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
@@ -1417,7 +1467,7 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1436,10 +1486,13 @@
       <c r="F7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
       <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -1448,7 +1501,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1456,21 +1509,18 @@
         <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8"/>
+        <v>124</v>
+      </c>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -1479,7 +1529,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1490,13 +1540,17 @@
         <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="6">
-        <v>2</v>
-      </c>
       <c r="F9" s="6"/>
+      <c r="G9" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="H9"/>
+      <c r="I9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -1505,7 +1559,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1513,16 +1567,24 @@
         <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
       <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
@@ -1531,7 +1593,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1548,14 +1610,24 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
-      </c>
-      <c r="S11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1572,15 +1644,24 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="S12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1602,10 +1683,9 @@
       <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="12"/>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1622,14 +1702,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1648,13 +1728,12 @@
       <c r="F15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" s="12"/>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1665,27 +1744,20 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16">
-        <v>8.15</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>56</v>
+        <v>97</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+      <c r="S16" s="4"/>
+    </row>
+    <row r="17" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1696,27 +1768,20 @@
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="E17" s="11">
-        <v>2E-3</v>
-      </c>
-      <c r="F17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+      <c r="S17" s="4"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1727,18 +1792,21 @@
         <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>55</v>
+        <v>8.15</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
@@ -1747,7 +1815,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1758,14 +1826,21 @@
         <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="11">
-        <v>4.8984470290102364E-5</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19"/>
+        <v>98</v>
+      </c>
+      <c r="E19">
+        <v>7.39</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>118</v>
+      </c>
       <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
@@ -1774,7 +1849,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -1785,14 +1860,21 @@
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E20" s="11">
-        <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20"/>
+        <v>2E-3</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
       <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -1801,7 +1883,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1814,16 +1896,19 @@
       <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="E21">
-        <v>7.39</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>56</v>
+      <c r="E21" s="11">
+        <v>2E-3</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
@@ -1832,7 +1917,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -1843,10 +1928,10 @@
         <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="11">
-        <v>2E-3</v>
+        <v>77</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>55</v>
@@ -1855,6 +1940,9 @@
         <v>84</v>
       </c>
       <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
@@ -1863,7 +1951,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -1874,7 +1962,7 @@
         <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23" s="11">
         <v>3.8299999999999999E-4</v>
@@ -1883,9 +1971,12 @@
         <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
@@ -1894,7 +1985,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -1905,14 +1996,21 @@
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E24" s="11">
         <v>4.8984470290102364E-5</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24"/>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
       <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
@@ -1921,7 +2019,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -1932,14 +2030,21 @@
         <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25"/>
+        <v>4.8984470290102364E-5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
       <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25"/>
@@ -1948,7 +2053,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -1959,14 +2064,19 @@
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="11">
         <v>10000</v>
       </c>
-      <c r="F26"/>
+      <c r="F26" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="G26"/>
       <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
@@ -1975,7 +2085,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -1986,7 +2096,7 @@
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="11">
         <f>0.005</f>
@@ -1997,6 +2107,9 @@
       </c>
       <c r="G27"/>
       <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
@@ -2005,7 +2118,7 @@
       <c r="Q27"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -2016,14 +2129,19 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" s="11">
         <v>1</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="G28"/>
       <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
@@ -2032,7 +2150,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -2047,9 +2165,10 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E30"/>
       <c r="F30" s="11"/>
+      <c r="H30"/>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
@@ -2058,12 +2177,11 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E31"/>
       <c r="F31" s="11"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31"/>
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
@@ -2072,9 +2190,9 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="E32"/>
-      <c r="F32"/>
+      <c r="F32" s="11"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
@@ -2086,7 +2204,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E33"/>
       <c r="F33" s="11"/>
       <c r="G33"/>
@@ -2100,7 +2218,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="5:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E34"/>
       <c r="F34" s="11"/>
       <c r="G34"/>
@@ -2114,7 +2232,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="5:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E35"/>
       <c r="F35" s="11"/>
       <c r="G35"/>
@@ -2128,7 +2246,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="5:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E36"/>
       <c r="F36" s="11"/>
       <c r="G36"/>
@@ -2142,9 +2260,9 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="5:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E37"/>
-      <c r="F37" s="11"/>
+      <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37"/>
@@ -2156,9 +2274,9 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="5:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E38"/>
-      <c r="F38" s="11"/>
+      <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38"/>
@@ -2170,7 +2288,7 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="5:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="5:18" x14ac:dyDescent="0.55000000000000004">
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
@@ -2184,10 +2302,7 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="5:18" x14ac:dyDescent="0.4">
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
+    <row r="40" spans="5:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H40"/>
       <c r="I40"/>
       <c r="L40"/>
@@ -2198,10 +2313,7 @@
       <c r="Q40"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="5:18" x14ac:dyDescent="0.4">
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
+    <row r="41" spans="5:18" x14ac:dyDescent="0.55000000000000004">
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
@@ -2224,22 +2336,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2255,19 +2367,19 @@
       <selection activeCell="D2" sqref="D2:D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.4609375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.23046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.765625" customWidth="1"/>
-    <col min="8" max="8" width="17.765625" customWidth="1"/>
+    <col min="1" max="1" width="3.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.20703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.89453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.734375" customWidth="1"/>
+    <col min="8" max="8" width="17.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -2287,15 +2399,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>-0.44102070714801095</v>
@@ -2304,15 +2416,15 @@
         <v>8.1959033957973393</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>-0.390483349004001</v>
@@ -2321,15 +2433,15 @@
         <v>8.1960575514398695</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>-0.34424704261692801</v>
@@ -2338,15 +2450,15 @@
         <v>8.1961985874532601</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5">
         <v>-0.29048389565521598</v>
@@ -2355,15 +2467,15 @@
         <v>8.1963625828176596</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6">
         <v>-0.24209706338967402</v>
@@ -2372,15 +2484,15 @@
         <v>8.1965101786456103</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7">
         <v>-0.19155587868716201</v>
@@ -2389,15 +2501,15 @@
         <v>8.1945291146436894</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8">
         <v>-0.13994325760391799</v>
@@ -2406,15 +2518,15 @@
         <v>8.1946865501935093</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9">
         <v>-9.0481162399142695E-2</v>
@@ -2423,15 +2535,15 @@
         <v>8.1948374259287604</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10">
         <v>-5.1698991975160001E-2</v>
@@ -2440,15 +2552,15 @@
         <v>8.1543863293464192</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11">
         <v>-4.07856471257078E-2</v>
@@ -2457,15 +2569,15 @@
         <v>8.0647399033520593</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12">
         <v>-3.0675879561804197E-2</v>
@@ -2474,15 +2586,15 @@
         <v>7.8234896026938898</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13">
         <v>-1.9509981851179602E-2</v>
@@ -2491,15 +2603,15 @@
         <v>7.5929186801653001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14">
         <v>-8.5277589486802904E-3</v>
@@ -2508,15 +2620,15 @@
         <v>7.4648383005707002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15">
         <v>2.7332560732951094E-4</v>
@@ -2525,15 +2637,15 @@
         <v>7.3538331183171799</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16">
         <v>5.7453042660660508E-3</v>
@@ -2542,15 +2654,15 @@
         <v>7.3004690267421699</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17">
         <v>2.0848730675879598E-2</v>
@@ -2559,15 +2671,15 @@
         <v>7.2727570900662499</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18">
         <v>3.9132027201364508E-2</v>
@@ -2576,15 +2688,15 @@
         <v>7.2706776288456902</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
         <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19">
         <v>6.06258063105415E-2</v>
@@ -2593,15 +2705,15 @@
         <v>7.2771488859248201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20">
         <v>8.5310935210898095E-2</v>
@@ -2610,15 +2722,15 @@
         <v>7.3028469595259402</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21">
         <v>0.11105602081647802</v>
@@ -2627,15 +2739,15 @@
         <v>7.3370891916121801</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22">
         <v>0.16041097238318003</v>
@@ -2644,15 +2756,15 @@
         <v>7.3970262173922503</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23">
         <v>0.21091389150066603</v>
@@ -2661,15 +2773,15 @@
         <v>7.4163973498349103</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24">
         <v>0.259300723766208</v>
@@ -2678,15 +2790,15 @@
         <v>7.41654494566286</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25">
         <v>0.30876664552948602</v>
@@ -2695,9 +2807,9 @@
         <v>7.4145606017536503</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -2712,9 +2824,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -2729,9 +2841,9 @@
         <v>33.887741341224</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -2746,9 +2858,9 @@
         <v>60.834121602056101</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -2763,9 +2875,9 @@
         <v>81.314032470236398</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -2780,9 +2892,9 @@
         <v>105.02717803474199</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -2797,9 +2909,9 @@
         <v>165.38971729879799</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -2814,9 +2926,9 @@
         <v>197.720409587186</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -2831,9 +2943,9 @@
         <v>246.21893003207299</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -2848,9 +2960,9 @@
         <v>330.27806811193301</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -2865,9 +2977,9 @@
         <v>383.09859931772303</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -2882,9 +2994,9 @@
         <v>421.91396242233401</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -2899,9 +3011,9 @@
         <v>445.65192810989299</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -2916,9 +3028,9 @@
         <v>517.90165164129996</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -2933,9 +3045,9 @@
         <v>558.91111362376603</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -2950,12 +3062,12 @@
         <v>579.45555681188398</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
         <v>61</v>
@@ -2967,12 +3079,12 @@
         <v>-0.50168674698795701</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" t="s">
         <v>61</v>
@@ -2984,12 +3096,12 @@
         <v>13.755241304725001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" t="s">
         <v>61</v>
@@ -3001,12 +3113,12 @@
         <v>64.379710632654096</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
         <v>61</v>
@@ -3018,12 +3130,12 @@
         <v>113.79806305468701</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
@@ -3035,12 +3147,12 @@
         <v>153.97516807972599</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
         <v>61</v>
@@ -3052,12 +3164,12 @@
         <v>200.981770879815</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
         <v>61</v>
@@ -3069,12 +3181,12 @@
         <v>253.21181373642699</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
@@ -3086,12 +3198,12 @@
         <v>263.03747827730598</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
         <v>61</v>
@@ -3103,12 +3215,12 @@
         <v>262.808456480242</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
         <v>61</v>
@@ -3120,12 +3232,12 @@
         <v>263.14738937230402</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
         <v>61</v>
@@ -3137,12 +3249,12 @@
         <v>263.48825902374898</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
         <v>61</v>
@@ -3154,12 +3266,12 @@
         <v>263.831065434577</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
         <v>61</v>
@@ -3185,21 +3297,21 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.47265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.62890625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.15625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.89453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3210,33 +3322,33 @@
         <v>59</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="17">
@@ -3246,7 +3358,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3254,16 +3366,16 @@
         <v>62</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="17">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3277,7 +3389,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3291,7 +3403,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3305,12 +3417,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="17">
         <v>1000000</v>
@@ -3319,17 +3431,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="18"/>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/model_config.pHBB1991.xlsx
+++ b/examples/analytical/pHBB1991/model_config.pHBB1991.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32916" windowHeight="16044" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16046" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="reactions" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="128">
   <si>
     <t>type</t>
   </si>
@@ -417,6 +417,15 @@
   </si>
   <si>
     <t>parameter in gridtran</t>
+  </si>
+  <si>
+    <t>rate constant of H2S oxidation by O2</t>
+  </si>
+  <si>
+    <t>location of the bacterial mat</t>
+  </si>
+  <si>
+    <t>parameter controlling the narrowness of the interface</t>
   </si>
 </sst>
 </file>
@@ -838,17 +847,17 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.3671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -868,7 +877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -885,7 +894,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D22" s="5"/>
     </row>
   </sheetData>
@@ -902,18 +911,18 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.3671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.89453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.05078125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.3671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.62890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3828125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -939,7 +948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D2" s="4"/>
       <c r="F2" s="7"/>
     </row>
@@ -956,16 +965,16 @@
       <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.68359375" customWidth="1"/>
-    <col min="4" max="4" width="25.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.69140625" customWidth="1"/>
+    <col min="4" max="4" width="25.15234375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -985,103 +994,103 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D7" s="4"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D8" s="4"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D9" s="4"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D10" s="4"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D11" s="4"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D12" s="4"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D13" s="4"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D14" s="6"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D15" s="6"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="D16" s="6"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D17" s="6"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D18" s="6"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D19" s="6"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D20" s="6"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D21" s="6"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D22" s="6"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D23" s="6"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D24" s="6"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D25" s="6"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D26" s="6"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D27" s="6"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D28" s="6"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D29" s="6"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D30" s="6"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
       <c r="D31" s="6"/>
     </row>
   </sheetData>
@@ -1098,18 +1107,18 @@
       <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.15625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.20703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.62890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.05078125" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.20703125" style="1"/>
+    <col min="4" max="4" width="7.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="14.15" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1150,7 +1159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1168,7 +1177,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1187,7 +1196,7 @@
       </c>
       <c r="H4" s="18"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1222,7 +1231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="E7" s="14"/>
@@ -1239,32 +1248,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.20703125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.68359375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.20703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.26171875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1015625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.47265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.89453125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.20703125" style="4"/>
-    <col min="12" max="12" width="5.1015625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.15625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.47265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.68359375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.20703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.20703125" style="4"/>
+    <col min="1" max="1" width="6.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.23046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.23046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.07421875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.4609375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.921875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.53515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.23046875" style="4"/>
+    <col min="12" max="12" width="5.07421875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.15234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.4609375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.69140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.23046875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.23046875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1306,7 @@
       <c r="Q1"/>
       <c r="R1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1331,7 +1340,7 @@
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1365,7 +1374,7 @@
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1399,7 +1408,7 @@
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1433,7 +1442,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1467,7 +1476,7 @@
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -1501,7 +1510,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -1521,6 +1530,9 @@
       <c r="G8" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -1529,7 +1541,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -1551,6 +1563,8 @@
       </c>
       <c r="H9"/>
       <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
@@ -1559,7 +1573,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1593,7 +1607,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1627,7 +1641,7 @@
       <c r="Q11"/>
       <c r="R11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -1661,7 +1675,7 @@
       <c r="Q12"/>
       <c r="R12"/>
     </row>
-    <row r="13" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -1685,7 +1699,7 @@
       </c>
       <c r="S13" s="4"/>
     </row>
-    <row r="14" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -1709,7 +1723,7 @@
       </c>
       <c r="S14" s="4"/>
     </row>
-    <row r="15" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -1733,7 +1747,7 @@
       </c>
       <c r="S15" s="4"/>
     </row>
-    <row r="16" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -1757,7 +1771,7 @@
       </c>
       <c r="S16" s="4"/>
     </row>
-    <row r="17" spans="1:19" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:19" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1781,7 +1795,7 @@
       </c>
       <c r="S17" s="4"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1815,7 +1829,7 @@
       <c r="Q18"/>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1849,7 +1863,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>1</v>
       </c>
@@ -1883,7 +1897,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -1917,7 +1931,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>1</v>
       </c>
@@ -1951,7 +1965,7 @@
       <c r="Q22"/>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>1</v>
       </c>
@@ -1985,7 +1999,7 @@
       <c r="Q23"/>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -2019,7 +2033,7 @@
       <c r="Q24"/>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>1</v>
       </c>
@@ -2053,7 +2067,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -2072,7 +2086,9 @@
       <c r="F26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G26"/>
+      <c r="G26" t="s">
+        <v>127</v>
+      </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -2085,7 +2101,7 @@
       <c r="Q26"/>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -2105,7 +2121,9 @@
       <c r="F27" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G27"/>
+      <c r="G27" t="s">
+        <v>126</v>
+      </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -2118,7 +2136,7 @@
       <c r="Q27"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -2137,7 +2155,9 @@
       <c r="F28" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="G28"/>
+      <c r="G28" t="s">
+        <v>125</v>
+      </c>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -2150,7 +2170,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -2165,7 +2185,7 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="E30"/>
       <c r="F30" s="11"/>
       <c r="H30"/>
@@ -2177,7 +2197,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="E31"/>
       <c r="F31" s="11"/>
       <c r="G31"/>
@@ -2190,7 +2210,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
       <c r="E32"/>
       <c r="F32" s="11"/>
       <c r="G32"/>
@@ -2204,7 +2224,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="5:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="5:18" x14ac:dyDescent="0.4">
       <c r="E33"/>
       <c r="F33" s="11"/>
       <c r="G33"/>
@@ -2218,7 +2238,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="5:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="5:18" x14ac:dyDescent="0.4">
       <c r="E34"/>
       <c r="F34" s="11"/>
       <c r="G34"/>
@@ -2232,7 +2252,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="5:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="5:18" x14ac:dyDescent="0.4">
       <c r="E35"/>
       <c r="F35" s="11"/>
       <c r="G35"/>
@@ -2246,7 +2266,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="5:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="5:18" x14ac:dyDescent="0.4">
       <c r="E36"/>
       <c r="F36" s="11"/>
       <c r="G36"/>
@@ -2260,7 +2280,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="5:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="5:18" x14ac:dyDescent="0.4">
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
@@ -2274,7 +2294,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="5:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="5:18" x14ac:dyDescent="0.4">
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
@@ -2288,7 +2308,7 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="5:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="5:18" x14ac:dyDescent="0.4">
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
@@ -2302,7 +2322,7 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="5:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="5:18" x14ac:dyDescent="0.4">
       <c r="H40"/>
       <c r="I40"/>
       <c r="L40"/>
@@ -2313,7 +2333,7 @@
       <c r="Q40"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="5:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="5:18" x14ac:dyDescent="0.4">
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
@@ -2336,9 +2356,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -2346,7 +2366,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -2367,19 +2387,19 @@
       <selection activeCell="D2" sqref="D2:D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.20703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.3125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.89453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.734375" customWidth="1"/>
-    <col min="8" max="8" width="17.734375" customWidth="1"/>
+    <col min="1" max="1" width="3.4609375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.765625" customWidth="1"/>
+    <col min="8" max="8" width="17.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -2399,7 +2419,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>109</v>
       </c>
@@ -2416,7 +2436,7 @@
         <v>8.1959033957973393</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>109</v>
       </c>
@@ -2433,7 +2453,7 @@
         <v>8.1960575514398695</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>109</v>
       </c>
@@ -2450,7 +2470,7 @@
         <v>8.1961985874532601</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>109</v>
       </c>
@@ -2467,7 +2487,7 @@
         <v>8.1963625828176596</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>109</v>
       </c>
@@ -2484,7 +2504,7 @@
         <v>8.1965101786456103</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -2501,7 +2521,7 @@
         <v>8.1945291146436894</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -2518,7 +2538,7 @@
         <v>8.1946865501935093</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -2535,7 +2555,7 @@
         <v>8.1948374259287604</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -2552,7 +2572,7 @@
         <v>8.1543863293464192</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -2569,7 +2589,7 @@
         <v>8.0647399033520593</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -2586,7 +2606,7 @@
         <v>7.8234896026938898</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -2603,7 +2623,7 @@
         <v>7.5929186801653001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -2620,7 +2640,7 @@
         <v>7.4648383005707002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -2637,7 +2657,7 @@
         <v>7.3538331183171799</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -2654,7 +2674,7 @@
         <v>7.3004690267421699</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -2671,7 +2691,7 @@
         <v>7.2727570900662499</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -2688,7 +2708,7 @@
         <v>7.2706776288456902</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -2705,7 +2725,7 @@
         <v>7.2771488859248201</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -2722,7 +2742,7 @@
         <v>7.3028469595259402</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -2739,7 +2759,7 @@
         <v>7.3370891916121801</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -2756,7 +2776,7 @@
         <v>7.3970262173922503</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -2773,7 +2793,7 @@
         <v>7.4163973498349103</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -2790,7 +2810,7 @@
         <v>7.41654494566286</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -2807,7 +2827,7 @@
         <v>7.4145606017536503</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2824,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -2841,7 +2861,7 @@
         <v>33.887741341224</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -2858,7 +2878,7 @@
         <v>60.834121602056101</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -2875,7 +2895,7 @@
         <v>81.314032470236398</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -2892,7 +2912,7 @@
         <v>105.02717803474199</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -2909,7 +2929,7 @@
         <v>165.38971729879799</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -2926,7 +2946,7 @@
         <v>197.720409587186</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -2943,7 +2963,7 @@
         <v>246.21893003207299</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -2960,7 +2980,7 @@
         <v>330.27806811193301</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -2977,7 +2997,7 @@
         <v>383.09859931772303</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -2994,7 +3014,7 @@
         <v>421.91396242233401</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -3011,7 +3031,7 @@
         <v>445.65192810989299</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -3028,7 +3048,7 @@
         <v>517.90165164129996</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -3045,7 +3065,7 @@
         <v>558.91111362376603</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -3062,7 +3082,7 @@
         <v>579.45555681188398</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -3079,7 +3099,7 @@
         <v>-0.50168674698795701</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -3096,7 +3116,7 @@
         <v>13.755241304725001</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -3113,7 +3133,7 @@
         <v>64.379710632654096</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -3130,7 +3150,7 @@
         <v>113.79806305468701</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -3147,7 +3167,7 @@
         <v>153.97516807972599</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -3164,7 +3184,7 @@
         <v>200.981770879815</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -3181,7 +3201,7 @@
         <v>253.21181373642699</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -3198,7 +3218,7 @@
         <v>263.03747827730598</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -3215,7 +3235,7 @@
         <v>262.808456480242</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -3232,7 +3252,7 @@
         <v>263.14738937230402</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -3249,7 +3269,7 @@
         <v>263.48825902374898</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -3266,7 +3286,7 @@
         <v>263.831065434577</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -3297,21 +3317,21 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.3125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.62890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.89453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.4609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3343,7 +3363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3358,7 +3378,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3375,7 +3395,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3389,7 +3409,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3403,7 +3423,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3417,7 +3437,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3431,17 +3451,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" s="18"/>
     </row>
   </sheetData>

--- a/examples/analytical/pHBB1991/model_config.pHBB1991.xlsx
+++ b/examples/analytical/pHBB1991/model_config.pHBB1991.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16046" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="16046" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="reactions" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="129">
   <si>
     <t>type</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>parameter controlling the narrowness of the interface</t>
+  </si>
+  <si>
+    <t>code</t>
   </si>
 </sst>
 </file>
@@ -959,10 +962,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -974,7 +977,7 @@
     <col min="6" max="6" width="6.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -993,44 +996,47 @@
       <c r="F1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D7" s="4"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D8" s="4"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D9" s="4"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D10" s="4"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D11" s="4"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D12" s="4"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D13" s="4"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D14" s="6"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D15" s="6"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D16" s="6"/>
       <c r="E16" s="9"/>
     </row>
@@ -1248,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -2350,28 +2356,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>95</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D53"/>
     </sheetView>
   </sheetViews>
